--- a/Paper/Supplementary File 3.xlsx
+++ b/Paper/Supplementary File 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theodoramautz/Desktop/SIO/Research/baja_edna/baja_edna_git/Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C8266F-3AD1-0843-803C-DE1C80FF3DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1809DB29-8953-1D45-9F19-7824261C2062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="500" windowWidth="28040" windowHeight="16060" xr2:uid="{6EEE10C4-2ABE-5D4F-B2D4-4DDD27BD8250}"/>
+    <workbookView xWindow="200" yWindow="500" windowWidth="28040" windowHeight="16060" activeTab="1" xr2:uid="{6EEE10C4-2ABE-5D4F-B2D4-4DDD27BD8250}"/>
   </bookViews>
   <sheets>
     <sheet name="Final Species Overlap" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
-    <t>Scientific name</t>
-  </si>
-  <si>
     <t>Anisotremus davidsonii</t>
   </si>
   <si>
@@ -264,7 +261,10 @@
     <t>Alphestes immaculatus</t>
   </si>
   <si>
-    <t>Scientific Name</t>
+    <t>Final Species Overlap</t>
+  </si>
+  <si>
+    <t>Original Species Overlap</t>
   </si>
 </sst>
 </file>
@@ -326,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,10 +337,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -677,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDF7A46-B014-FA48-B8E7-58D86DF131CE}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,235 +686,234 @@
     <col min="2" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>60</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A45">
-    <sortCondition ref="A2:A45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:A46">
+    <sortCondition ref="A3:A46"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -925,10 +921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9CC52D-3EC1-6B48-955A-04BEEB8E0D7E}">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -939,157 +935,160 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
